--- a/Database/Data_20150722/programs.xlsx
+++ b/Database/Data_20150722/programs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="71">
   <si>
     <t>Specialized</t>
   </si>
@@ -137,9 +137,6 @@
     <t>IS2</t>
   </si>
   <si>
-    <t>ACC102</t>
-  </si>
-  <si>
     <t>ISM301</t>
   </si>
   <si>
@@ -155,30 +152,9 @@
     <t>ES2</t>
   </si>
   <si>
-    <t>SWD392</t>
-  </si>
-  <si>
-    <t>MLN102</t>
-  </si>
-  <si>
-    <t>HCI202</t>
-  </si>
-  <si>
-    <t>DGT202</t>
-  </si>
-  <si>
-    <t>ESH202</t>
-  </si>
-  <si>
     <t>JS</t>
   </si>
   <si>
-    <t>SWD393</t>
-  </si>
-  <si>
-    <t>MLN103</t>
-  </si>
-  <si>
     <t>JPS142</t>
   </si>
   <si>
@@ -191,12 +167,6 @@
     <t>SWM301</t>
   </si>
   <si>
-    <t>VNR201</t>
-  </si>
-  <si>
-    <t>HCM201</t>
-  </si>
-  <si>
     <t>PRX301</t>
   </si>
   <si>
@@ -212,15 +182,6 @@
     <t>PRM391</t>
   </si>
   <si>
-    <t>SWM302</t>
-  </si>
-  <si>
-    <t>VNR202</t>
-  </si>
-  <si>
-    <t>HCM202</t>
-  </si>
-  <si>
     <t>JPS212</t>
   </si>
   <si>
@@ -237,16 +198,61 @@
   </si>
   <si>
     <t>JPS222</t>
+  </si>
+  <si>
+    <t>OSP201</t>
+  </si>
+  <si>
+    <t>SRE301</t>
+  </si>
+  <si>
+    <t>IAP301</t>
+  </si>
+  <si>
+    <t>IAA201</t>
+  </si>
+  <si>
+    <t>IAA301</t>
+  </si>
+  <si>
+    <t>IA1</t>
+  </si>
+  <si>
+    <t>CES201</t>
+  </si>
+  <si>
+    <t>IAP201</t>
+  </si>
+  <si>
+    <t>CSD202</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>IAO101</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>VNR201/HCM201</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,10 +284,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,592 +584,725 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1">
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C16" s="2">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="1">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Data_20150722/programs.xlsx
+++ b/Database/Data_20150722/programs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FU\Do an tot nghiep\FinalProject\Database\Data_20150722\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone Project\FU Timetable\FinalProject\Database\Data_20150722\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="71">
   <si>
     <t>Specialized</t>
   </si>
@@ -215,9 +215,6 @@
     <t>IAA301</t>
   </si>
   <si>
-    <t>IA1</t>
-  </si>
-  <si>
     <t>CES201</t>
   </si>
   <si>
@@ -237,13 +234,16 @@
   </si>
   <si>
     <t>VNR201/HCM201</t>
+  </si>
+  <si>
+    <t>PHY101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +256,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -281,8 +311,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -305,8 +343,16 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 11" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 2 2 2" xfId="4"/>
+    <cellStyle name="Normal 2_Management Course 3 - 9.2007 final" xfId="5"/>
+    <cellStyle name="Normal 4_QD578_13112012_BFU Bachelor Program for Spring  2013 V4-Final" xfId="6"/>
+    <cellStyle name="Normal 7" xfId="7"/>
+    <cellStyle name="Normal 8" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +966,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>45</v>
@@ -949,7 +995,7 @@
         <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>45</v>
@@ -978,7 +1024,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>45</v>
@@ -1007,7 +1053,7 @@
         <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>45</v>
@@ -1036,7 +1082,7 @@
         <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>52</v>
@@ -1045,7 +1091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1068,7 +1114,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +1137,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1160,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1183,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -1160,12 +1206,12 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1189,12 +1235,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -1218,12 +1264,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
@@ -1232,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>17</v>
@@ -1247,12 +1293,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
@@ -1261,27 +1307,27 @@
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
@@ -1304,6 +1350,61 @@
       <c r="I26" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Data_20150722/programs.xlsx
+++ b/Database/Data_20150722/programs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
   <si>
     <t>Specialized</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>PRO192</t>
-  </si>
-  <si>
-    <t>DBI201</t>
   </si>
   <si>
     <t>MAD101</t>
@@ -632,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,13 +705,13 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -731,19 +728,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -760,19 +757,19 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -789,19 +786,19 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -809,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
         <v>7</v>
@@ -818,19 +815,19 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -838,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -847,19 +844,19 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -867,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
@@ -876,19 +873,19 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -896,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2">
         <v>7</v>
@@ -905,19 +902,19 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -925,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>7</v>
@@ -934,19 +931,19 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="G11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -954,7 +951,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>8</v>
@@ -963,19 +960,19 @@
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -983,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>8</v>
@@ -992,19 +989,19 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1012,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
@@ -1021,19 +1018,19 @@
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1041,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
         <v>8</v>
@@ -1050,19 +1047,19 @@
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1070,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>8</v>
@@ -1079,16 +1076,16 @@
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1096,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>9</v>
@@ -1105,10 +1102,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1119,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2">
         <v>9</v>
@@ -1128,10 +1125,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1142,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -1151,10 +1148,10 @@
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1165,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2">
         <v>9</v>
@@ -1174,10 +1171,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1188,7 +1185,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
         <v>9</v>
@@ -1197,10 +1194,10 @@
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1211,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1240,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -1255,13 +1252,13 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1269,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
@@ -1278,19 +1275,19 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1298,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
@@ -1307,19 +1304,19 @@
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1327,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
@@ -1336,19 +1333,19 @@
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -1357,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -1378,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J27" s="1"/>
     </row>
